--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G2_Backlog_V.1.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G2_Backlog_V.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\perfil\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541AD9B3-7700-44EA-9DEF-EA6B91458419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F12D8-3B23-4B28-8F60-75C7E4A07500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Tema</t>
   </si>
@@ -144,12 +144,18 @@
   <si>
     <t>Validación de datos para inicio de sesion</t>
   </si>
+  <si>
+    <t>Conclusion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se esta trabajando con buena planificacion, cumpliendo las horas estimadas </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -257,6 +263,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -337,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,17 +389,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,52 +440,17 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,6 +541,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Horas Estimadas</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -581,6 +600,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Horas Reales</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -635,6 +657,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1098,19 +1121,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="35" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1121,11 +1144,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
@@ -2226,38 +2249,38 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
@@ -2276,15 +2299,15 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="14" t="s">
         <v>37</v>
       </c>
@@ -2293,34 +2316,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="28" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30">
+      <c r="H7" s="3"/>
+      <c r="I7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="14" t="s">
         <v>37</v>
       </c>
@@ -2356,106 +2379,106 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="29"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="30"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="29"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="30"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="29"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="42"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3440,16 +3463,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C6:F6"/>
@@ -3457,6 +3470,16 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3470,8 +3493,8 @@
   </sheetPr>
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3490,25 +3513,25 @@
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="28" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -3516,7 +3539,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="16">
@@ -3549,7 +3572,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="16">
@@ -3583,7 +3606,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="16">
@@ -3611,70 +3634,70 @@
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" ref="K6:K10" si="0">SUM(D6:J6)</f>
+        <f t="shared" ref="K6" si="0">SUM(D6:J6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="43"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="43"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3706,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ref="F13:J13" si="1">H13-SUM(I4:I8)</f>
+        <f t="shared" ref="I13" si="1">H13-SUM(I4:I8)</f>
         <v>0</v>
       </c>
       <c r="J13" s="9">
@@ -3758,27 +3781,38 @@
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="46"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="46"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4750,12 +4784,15 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B26:B28"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>